--- a/public_html/archivos/2012_1033_OFERTA_ACADEMICA.xlsx
+++ b/public_html/archivos/2012_1033_OFERTA_ACADEMICA.xlsx
@@ -13,38 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSTGRADO!$A$4:$O$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$L$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$K$95</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flor María Ramón</author>
-  </authors>
-  <commentList>
-    <comment ref="L5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso que la carrera se encuentre vigente para el segundo ciclo del 2013 seleccione "RATIFICADO" caso contrario"NO VIGENTE HABILITADO". Realizar este proceso solo para las carreras de Estado "VIGENTE" (columna k)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="528">
   <si>
     <t>CÓDIGO IES</t>
   </si>
@@ -131,9 +107,6 @@
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
-  </si>
-  <si>
-    <t>RATIFICAR EL ESTADO DE LA CARRERA PARA EL SEGUNDO CICLO DEL 2013 (PRÓXIMO EXAMEN SNNA)</t>
   </si>
   <si>
     <t>NO VIGENTE HABILITADO</t>
@@ -1637,7 +1610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,12 +1625,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1880,10 +1847,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1978,8 +1945,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2468,10 +2435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2479,17 +2448,16 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
@@ -2503,14 +2471,13 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2522,10 +2489,9 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2559,22 +2525,19 @@
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>11</v>
@@ -2589,27 +2552,27 @@
         <v>14</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>16</v>
@@ -2624,25 +2587,25 @@
         <v>14</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -2657,27 +2620,27 @@
         <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>160</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>161</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>18</v>
@@ -2692,27 +2655,27 @@
         <v>14</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>16</v>
@@ -2727,27 +2690,27 @@
         <v>14</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>16</v>
@@ -2762,27 +2725,27 @@
         <v>14</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
@@ -2797,33 +2760,33 @@
         <v>14</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>13</v>
@@ -2832,33 +2795,33 @@
         <v>14</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -2867,33 +2830,33 @@
         <v>14</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="E15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>13</v>
@@ -2902,27 +2865,27 @@
         <v>14</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>16</v>
@@ -2937,10 +2900,10 @@
         <v>14</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>15</v>
@@ -2948,22 +2911,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>173</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>13</v>
@@ -2972,10 +2935,10 @@
         <v>14</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>22</v>
@@ -2983,22 +2946,22 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>13</v>
@@ -3007,10 +2970,10 @@
         <v>14</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>22</v>
@@ -3018,34 +2981,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>22</v>
@@ -3053,22 +3016,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>13</v>
@@ -3077,10 +3040,10 @@
         <v>14</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>22</v>
@@ -3088,22 +3051,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>13</v>
@@ -3112,10 +3075,10 @@
         <v>14</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>22</v>
@@ -3123,16 +3086,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>18</v>
@@ -3147,10 +3110,10 @@
         <v>25</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>22</v>
@@ -3158,16 +3121,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>182</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>183</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>16</v>
@@ -3182,10 +3145,10 @@
         <v>14</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>22</v>
@@ -3193,16 +3156,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
@@ -3217,10 +3180,10 @@
         <v>14</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>22</v>
@@ -3228,22 +3191,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>13</v>
@@ -3252,10 +3215,10 @@
         <v>14</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>22</v>
@@ -3263,22 +3226,22 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>13</v>
@@ -3287,10 +3250,10 @@
         <v>14</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>15</v>
@@ -3298,16 +3261,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>16</v>
@@ -3322,10 +3285,10 @@
         <v>14</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>22</v>
@@ -3333,22 +3296,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
@@ -3357,10 +3320,10 @@
         <v>14</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>22</v>
@@ -3368,22 +3331,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>13</v>
@@ -3392,10 +3355,10 @@
         <v>14</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>15</v>
@@ -3403,22 +3366,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="E30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
@@ -3427,10 +3390,10 @@
         <v>14</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>22</v>
@@ -3438,22 +3401,22 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>13</v>
@@ -3462,10 +3425,10 @@
         <v>14</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>22</v>
@@ -3473,22 +3436,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -3497,7 +3460,7 @@
         <v>14</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="9" t="s">
@@ -3506,22 +3469,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>13</v>
@@ -3530,10 +3493,10 @@
         <v>14</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>22</v>
@@ -3541,22 +3504,22 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="E34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>13</v>
@@ -3565,10 +3528,10 @@
         <v>14</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>22</v>
@@ -3576,16 +3539,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>11</v>
@@ -3600,10 +3563,10 @@
         <v>25</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>22</v>
@@ -3611,22 +3574,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>204</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
@@ -3635,10 +3598,10 @@
         <v>25</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>22</v>
@@ -3646,22 +3609,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>13</v>
@@ -3670,10 +3633,10 @@
         <v>14</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>22</v>
@@ -3681,16 +3644,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>208</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>16</v>
@@ -3705,10 +3668,10 @@
         <v>14</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>15</v>
@@ -3716,16 +3679,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>18</v>
@@ -3740,10 +3703,10 @@
         <v>25</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>22</v>
@@ -3751,22 +3714,22 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>13</v>
@@ -3775,10 +3738,10 @@
         <v>14</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>22</v>
@@ -3786,22 +3749,22 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>213</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>13</v>
@@ -3810,10 +3773,10 @@
         <v>25</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>22</v>
@@ -3821,16 +3784,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>18</v>
@@ -3845,10 +3808,10 @@
         <v>14</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>15</v>
@@ -3856,22 +3819,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="E43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>13</v>
@@ -3880,10 +3843,10 @@
         <v>25</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>22</v>
@@ -3891,22 +3854,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>13</v>
@@ -3915,10 +3878,10 @@
         <v>14</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>15</v>
@@ -3926,16 +3889,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>221</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>222</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -3950,10 +3913,10 @@
         <v>14</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>15</v>
@@ -3961,16 +3924,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>18</v>
@@ -3985,10 +3948,10 @@
         <v>14</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>15</v>
@@ -3996,16 +3959,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>16</v>
@@ -4020,10 +3983,10 @@
         <v>14</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>22</v>
@@ -4031,16 +3994,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>16</v>
@@ -4055,10 +4018,10 @@
         <v>14</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>22</v>
@@ -4066,16 +4029,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>16</v>
@@ -4090,10 +4053,10 @@
         <v>14</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>22</v>
@@ -4101,16 +4064,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>233</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>234</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>16</v>
@@ -4125,10 +4088,10 @@
         <v>14</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>22</v>
@@ -4136,16 +4099,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>16</v>
@@ -4160,10 +4123,10 @@
         <v>14</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>22</v>
@@ -4171,16 +4134,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>16</v>
@@ -4195,10 +4158,10 @@
         <v>14</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>22</v>
@@ -4206,22 +4169,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>240</v>
-      </c>
       <c r="E53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>13</v>
@@ -4230,10 +4193,10 @@
         <v>14</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>22</v>
@@ -4241,22 +4204,22 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="E54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>13</v>
@@ -4265,10 +4228,10 @@
         <v>14</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>22</v>
@@ -4276,22 +4239,22 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>13</v>
@@ -4300,10 +4263,10 @@
         <v>14</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>22</v>
@@ -4311,22 +4274,22 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>13</v>
@@ -4335,10 +4298,10 @@
         <v>14</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>22</v>
@@ -4346,22 +4309,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>13</v>
@@ -4370,10 +4333,10 @@
         <v>14</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>22</v>
@@ -4381,16 +4344,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>16</v>
@@ -4405,10 +4368,10 @@
         <v>14</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>22</v>
@@ -4416,22 +4379,22 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E59" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>13</v>
@@ -4440,10 +4403,10 @@
         <v>14</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>22</v>
@@ -4451,16 +4414,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>18</v>
@@ -4475,10 +4438,10 @@
         <v>25</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>22</v>
@@ -4486,22 +4449,22 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="11" t="s">
-        <v>250</v>
-      </c>
       <c r="E61" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>13</v>
@@ -4510,10 +4473,10 @@
         <v>25</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>22</v>
@@ -4521,22 +4484,22 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>253</v>
-      </c>
       <c r="E62" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>13</v>
@@ -4545,10 +4508,10 @@
         <v>25</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>22</v>
@@ -4556,22 +4519,22 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E63" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>13</v>
@@ -4580,10 +4543,10 @@
         <v>25</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>22</v>
@@ -4591,16 +4554,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>18</v>
@@ -4615,10 +4578,10 @@
         <v>25</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>22</v>
@@ -4626,16 +4589,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>20</v>
@@ -4650,10 +4613,10 @@
         <v>25</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>22</v>
@@ -4661,22 +4624,22 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C66" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="E66" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G66" s="8" t="s">
         <v>13</v>
@@ -4685,10 +4648,10 @@
         <v>25</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>22</v>
@@ -4696,67 +4659,67 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>261</v>
-      </c>
       <c r="E67" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G67" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="G68" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>22</v>
@@ -4764,16 +4727,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>20</v>
@@ -4788,10 +4751,10 @@
         <v>25</v>
       </c>
       <c r="I69" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>266</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>22</v>
@@ -4799,22 +4762,22 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="E70" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>13</v>
@@ -4823,10 +4786,10 @@
         <v>25</v>
       </c>
       <c r="I70" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J70" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>22</v>
@@ -4834,16 +4797,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>270</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>18</v>
@@ -4858,10 +4821,10 @@
         <v>25</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>22</v>
@@ -4869,22 +4832,22 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="E72" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>13</v>
@@ -4893,10 +4856,10 @@
         <v>14</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>15</v>
@@ -4904,22 +4867,22 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G73" s="11" t="s">
         <v>13</v>
@@ -4928,10 +4891,10 @@
         <v>14</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>15</v>
@@ -4939,22 +4902,22 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D74" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>276</v>
-      </c>
       <c r="E74" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>13</v>
@@ -4963,10 +4926,10 @@
         <v>14</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>15</v>
@@ -4974,22 +4937,22 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="E75" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>13</v>
@@ -4998,10 +4961,10 @@
         <v>25</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>22</v>
@@ -5009,16 +4972,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>16</v>
@@ -5027,74 +4990,74 @@
         <v>24</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>25</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E77" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F77" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G77" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G78" s="8" t="s">
         <v>13</v>
@@ -5103,10 +5066,10 @@
         <v>14</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>22</v>
@@ -5114,57 +5077,57 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="E79" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G79" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>13</v>
@@ -5173,10 +5136,10 @@
         <v>14</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K80" s="9" t="s">
         <v>15</v>
@@ -5184,34 +5147,34 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="E81" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G81" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>22</v>
@@ -5219,22 +5182,22 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C82" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="E82" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>13</v>
@@ -5243,10 +5206,10 @@
         <v>14</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>15</v>
@@ -5254,16 +5217,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>297</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>298</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>16</v>
@@ -5278,10 +5241,10 @@
         <v>14</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>15</v>
@@ -5289,22 +5252,22 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>13</v>
@@ -5313,10 +5276,10 @@
         <v>14</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>15</v>
@@ -5324,34 +5287,34 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>22</v>
@@ -5359,22 +5322,22 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="E86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>13</v>
@@ -5383,10 +5346,10 @@
         <v>14</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>15</v>
@@ -5394,22 +5357,22 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C87" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>307</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>13</v>
@@ -5418,10 +5381,10 @@
         <v>14</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>15</v>
@@ -5429,16 +5392,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>16</v>
@@ -5453,7 +5416,7 @@
         <v>14</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="9" t="s">
@@ -5462,16 +5425,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>16</v>
@@ -5486,10 +5449,10 @@
         <v>14</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>15</v>
@@ -5497,16 +5460,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D90" s="8" t="s">
         <v>311</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>312</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>20</v>
@@ -5521,10 +5484,10 @@
         <v>14</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>15</v>
@@ -5532,22 +5495,22 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>314</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>315</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>13</v>
@@ -5556,10 +5519,10 @@
         <v>14</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>15</v>
@@ -5567,16 +5530,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>16</v>
@@ -5591,10 +5554,10 @@
         <v>14</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>15</v>
@@ -5602,22 +5565,22 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C93" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>320</v>
-      </c>
       <c r="E93" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F93" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="G93" s="11" t="s">
         <v>13</v>
@@ -5626,10 +5589,10 @@
         <v>14</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>15</v>
@@ -5637,22 +5600,22 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>13</v>
@@ -5661,10 +5624,10 @@
         <v>25</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>22</v>
@@ -5672,22 +5635,22 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>13</v>
@@ -5696,10 +5659,10 @@
         <v>14</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K95" s="15" t="s">
         <v>15</v>
@@ -5707,23 +5670,19 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A5:L95"/>
+  <autoFilter ref="A5:K95"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 L5">
-      <formula1>$N$1:$N$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="Solo acepta &quot;RATIFICADO&quot; o &quot;NO VIGENTE HABILITADO&quot;" sqref="L6:L95">
-      <formula1>$N$1:$N$2</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
+      <formula1>$M$1:$M$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5767,7 +5726,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -5790,10 +5749,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -5811,36 +5770,36 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
@@ -5852,19 +5811,19 @@
         <v>13</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -5872,16 +5831,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>328</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>20</v>
@@ -5893,19 +5852,19 @@
         <v>13</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J6" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -5913,16 +5872,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>16</v>
@@ -5934,19 +5893,19 @@
         <v>13</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -5954,16 +5913,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>334</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>16</v>
@@ -5975,19 +5934,19 @@
         <v>13</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -5995,16 +5954,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>16</v>
@@ -6016,19 +5975,19 @@
         <v>13</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6036,16 +5995,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>337</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>338</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>16</v>
@@ -6054,22 +6013,22 @@
         <v>24</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -6077,40 +6036,40 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -6118,16 +6077,16 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>16</v>
@@ -6139,19 +6098,19 @@
         <v>13</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -6159,40 +6118,40 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="K13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -6200,40 +6159,40 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -6241,40 +6200,40 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -6282,16 +6241,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>16</v>
@@ -6300,22 +6259,22 @@
         <v>24</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="K16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -6323,40 +6282,40 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -6364,16 +6323,16 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>356</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>16</v>
@@ -6382,22 +6341,22 @@
         <v>17</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -6405,16 +6364,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>16</v>
@@ -6426,13 +6385,13 @@
         <v>13</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
@@ -6444,16 +6403,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>361</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>362</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>16</v>
@@ -6462,22 +6421,22 @@
         <v>24</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -6485,40 +6444,40 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>366</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -6526,40 +6485,40 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -6567,40 +6526,40 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>371</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -6608,40 +6567,40 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>374</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>375</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -6649,16 +6608,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>377</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>16</v>
@@ -6667,22 +6626,22 @@
         <v>17</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -6690,16 +6649,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>378</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>20</v>
@@ -6711,19 +6670,19 @@
         <v>13</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -6731,108 +6690,108 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="E27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="N27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O27" s="9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>387</v>
-      </c>
       <c r="E28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G28" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K28" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>390</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>26</v>
@@ -6844,19 +6803,19 @@
         <v>13</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -6864,16 +6823,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>392</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>16</v>
@@ -6885,19 +6844,19 @@
         <v>13</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -6905,16 +6864,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>396</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>16</v>
@@ -6923,22 +6882,22 @@
         <v>17</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -6946,40 +6905,40 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>399</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -6987,40 +6946,40 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>402</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -7028,16 +6987,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>403</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>404</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>26</v>
@@ -7049,19 +7008,19 @@
         <v>13</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -7069,40 +7028,40 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>407</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -7110,16 +7069,16 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>16</v>
@@ -7131,19 +7090,19 @@
         <v>13</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -7151,16 +7110,16 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>410</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>411</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>16</v>
@@ -7172,19 +7131,19 @@
         <v>13</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -7192,16 +7151,16 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>16</v>
@@ -7210,22 +7169,22 @@
         <v>24</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -7233,40 +7192,40 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>416</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>417</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -7274,40 +7233,40 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>419</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>420</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K40" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -7315,40 +7274,40 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>422</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>423</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -7356,40 +7315,40 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>425</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>426</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -7397,16 +7356,16 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>428</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>429</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>16</v>
@@ -7418,19 +7377,19 @@
         <v>13</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -7438,40 +7397,40 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C44" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>431</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>432</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -7479,16 +7438,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>434</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>435</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>20</v>
@@ -7500,19 +7459,19 @@
         <v>13</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -7520,40 +7479,40 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>438</v>
-      </c>
       <c r="E46" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G46" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -7561,16 +7520,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>16</v>
@@ -7582,19 +7541,19 @@
         <v>13</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -7602,16 +7561,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>444</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>16</v>
@@ -7623,19 +7582,19 @@
         <v>13</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J48" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="11" t="s">
         <v>445</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L48" s="11" t="s">
-        <v>446</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -7643,16 +7602,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>448</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>16</v>
@@ -7664,19 +7623,19 @@
         <v>13</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
@@ -7684,16 +7643,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>16</v>
@@ -7705,19 +7664,19 @@
         <v>13</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -7725,40 +7684,40 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>453</v>
-      </c>
       <c r="E51" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="G51" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
@@ -7766,40 +7725,40 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="E52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="11" t="s">
         <v>456</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>457</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -7807,40 +7766,40 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
@@ -7848,16 +7807,16 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>460</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>461</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>16</v>
@@ -7869,19 +7828,19 @@
         <v>13</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -7889,16 +7848,16 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>16</v>
@@ -7910,19 +7869,19 @@
         <v>13</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
@@ -7930,16 +7889,16 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>16</v>
@@ -7948,22 +7907,22 @@
         <v>24</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -7971,40 +7930,40 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="E57" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="8" t="s">
         <v>468</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>469</v>
       </c>
       <c r="M57" s="8"/>
       <c r="N57" s="8"/>
@@ -8012,40 +7971,40 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C58" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K58" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L58" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -8053,16 +8012,16 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>473</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>474</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>16</v>
@@ -8071,22 +8030,22 @@
         <v>24</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
@@ -8094,40 +8053,40 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>475</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>476</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K60" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L60" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
@@ -8135,16 +8094,16 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>477</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>478</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>16</v>
@@ -8153,22 +8112,22 @@
         <v>17</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I61" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>480</v>
       </c>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -8176,16 +8135,16 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C62" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>481</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>16</v>
@@ -8197,19 +8156,19 @@
         <v>13</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K62" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L62" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
@@ -8217,16 +8176,16 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D63" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>485</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>16</v>
@@ -8238,19 +8197,19 @@
         <v>13</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M63" s="8"/>
       <c r="N63" s="8"/>
@@ -8258,16 +8217,16 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C64" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>16</v>
@@ -8279,19 +8238,19 @@
         <v>13</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K64" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L64" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
@@ -8299,16 +8258,16 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C65" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>490</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>491</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>16</v>
@@ -8317,22 +8276,22 @@
         <v>24</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M65" s="8"/>
       <c r="N65" s="8"/>
@@ -8340,16 +8299,16 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C66" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>492</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>493</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>16</v>
@@ -8358,22 +8317,22 @@
         <v>24</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K66" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L66" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
@@ -8381,40 +8340,40 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G67" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -8422,40 +8381,40 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E68" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F68" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G68" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L68" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
@@ -8463,16 +8422,16 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>16</v>
@@ -8484,19 +8443,19 @@
         <v>13</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -8504,16 +8463,16 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D70" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>502</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>16</v>
@@ -8525,19 +8484,19 @@
         <v>13</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K70" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L70" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
@@ -8545,40 +8504,40 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="D71" s="8" t="s">
-        <v>505</v>
-      </c>
       <c r="E71" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="G71" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K71" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -8586,16 +8545,16 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C72" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>16</v>
@@ -8604,22 +8563,22 @@
         <v>24</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L72" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
@@ -8627,16 +8586,16 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C73" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>510</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>511</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>11</v>
@@ -8648,19 +8607,19 @@
         <v>13</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -8668,40 +8627,40 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>513</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>514</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L74" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M74" s="11"/>
       <c r="N74" s="11"/>
@@ -8709,40 +8668,40 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="E75" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>518</v>
       </c>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -8750,40 +8709,40 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E76" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G76" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L76" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M76" s="11"/>
       <c r="N76" s="11"/>
@@ -8791,40 +8750,40 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
@@ -8832,16 +8791,16 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>16</v>
@@ -8853,19 +8812,19 @@
         <v>13</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J78" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="11" t="s">
         <v>526</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L78" s="11" t="s">
-        <v>527</v>
       </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
@@ -8873,16 +8832,16 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>16</v>
@@ -8891,22 +8850,22 @@
         <v>17</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J79" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K79" s="17" t="s">
         <v>22</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
